--- a/common/util/task5score.xlsx
+++ b/common/util/task5score.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28260" windowHeight="12620"/>
+    <workbookView windowWidth="21030" windowHeight="10610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>基本信息</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>结果类</t>
+  </si>
+  <si>
+    <t>及格/不及格</t>
   </si>
   <si>
     <t>版本</t>
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -94,6 +97,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -107,6 +138,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,14 +190,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,7 +198,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,6 +206,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -182,63 +221,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,13 +280,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,24 +352,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -337,18 +400,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -361,36 +412,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -409,24 +436,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -445,12 +460,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -462,7 +471,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -519,6 +528,47 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,21 +602,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,148 +660,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,18 +821,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -810,6 +836,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -828,58 +857,64 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1076,7 +1111,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1085,7 +1120,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1356,87 +1391,92 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.22727272727273" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="3" width="13.4519230769231" customWidth="1"/>
-    <col min="4" max="12" width="30.7596153846154" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.4519230769231" customWidth="1"/>
+    <col min="1" max="3" width="13.4545454545455" customWidth="1"/>
+    <col min="4" max="12" width="30.7636363636364" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="68" customHeight="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" ht="68" customHeight="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="62" spans="1:12">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" s="2" customFormat="1" ht="52.5" spans="1:13">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>16</v>
       </c>
+      <c r="L2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/common/util/task5score.xlsx
+++ b/common/util/task5score.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21030" windowHeight="10610"/>
+    <workbookView windowHeight="17810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>任务名字</t>
   </si>
   <si>
-    <t>咨询师ID</t>
+    <t>咨询师</t>
   </si>
   <si>
     <t>能准确识别风险并提出转介建议</t>
@@ -1393,15 +1393,15 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.22727272727273" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="3" width="13.4545454545455" customWidth="1"/>
     <col min="4" max="12" width="30.7636363636364" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.4545454545455" customWidth="1"/>
+    <col min="13" max="13" width="20.0545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="68" customHeight="1" spans="1:13">
